--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_02_beg.xlsx
@@ -824,7 +824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cronin"]   You don't have to worry about the volcano "issue" at all. Even though I don't know where you got your information, I can assure you that it's nonsense.
+    <t xml:space="preserve">[name="Cronin"]   You don't have to worry about the volcano 'issue' at all. Even though I don't know where you got your information, I can assure you that it's nonsense.
 </t>
   </si>
   <si>
@@ -916,7 +916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cronin"]   Of course, this is not the first time that someone has tried to spread rumors about this so-called "volcanic eruption." However, it is the first time one of these rumors has even been able to deceive someone like you.
+    <t xml:space="preserve">[name="Cronin"]   Of course, this is not the first time that someone has tried to spread rumors about this so-called 'volcanic eruption.' However, it is the first time one of these rumors has even been able to deceive someone like you.
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cronin"]   As far as I can tell, there's no difference between this "Doctor" and the swindlers I've encountered in the past.
+    <t xml:space="preserve">[name="Cronin"]   As far as I can tell, there's no difference between this 'Doctor' and the swindlers I've encountered in the past.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_02_beg.xlsx
@@ -716,7 +716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I’m already getting pumped up!;This kind of music is a bit intense for me…",values="1;2")]
+    <t xml:space="preserve">[Decision(options="I'm already getting pumped up!;This kind of music is a bit intense for me...",values="1;2")]
 </t>
   </si>
   <si>
@@ -868,7 +868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You’re a Catastrophe Messenger, and you don’t even know this much?",values="1")]
+    <t xml:space="preserve">[Decision(options="You're a Catastrophe Messenger, and you don't even know this much?",values="1")]
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You're jumping to conclusions…;If this is a joke, it’s not very funny.",values="1;2")]
+    <t xml:space="preserve">[Decision(options="You're jumping to conclusions...;If this is a joke, it's not very funny.",values="1;2")]
 </t>
   </si>
   <si>
